--- a/server/resource/excel/ExcelTemplate.xlsx
+++ b/server/resource/excel/ExcelTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B4DEA-7031-4E7C-9AA6-DB519C406696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8A116-09CF-4902-A881-D119AB75BFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2004" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="1680" windowWidth="21600" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,43 +15,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>路由Name</t>
-  </si>
-  <si>
-    <t>路由Path</t>
-  </si>
-  <si>
-    <t>是否隐藏</t>
-  </si>
-  <si>
-    <t>父节点</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>文件名称</t>
-  </si>
-  <si>
-    <t>https://www.gin-vue-admin.com</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>/</t>
+    <t>所属地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.123.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +71,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -85,8 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -362,69 +387,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/resource/excel/ExcelTemplate.xlsx
+++ b/server/resource/excel/ExcelTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA8A116-09CF-4902-A881-D119AB75BFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D857D4-3B49-49FC-804A-CF091F8447C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="1680" windowWidth="21600" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="3345" windowWidth="21600" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>所属地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,51 +384,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/resource/excel/ExcelTemplate.xlsx
+++ b/server/resource/excel/ExcelTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D857D4-3B49-49FC-804A-CF091F8447C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6EE196-9661-4A1D-A9F8-A01E16547B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="3345" windowWidth="21600" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="2910" windowWidth="21600" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>所属地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,11 +45,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.123.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,45 +408,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
